--- a/data/trans_orig/P14C17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2225445-87A8-43AF-A6F1-45D9701CF7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7E1D8D-9EA8-4E38-8B8E-FFC998B5EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83DE7BD6-77DF-4054-AC03-D03A13468E1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F49701EF-0D18-47B7-8B3D-AB131ACC777F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
   <si>
     <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>14,37%</t>
+    <t>12,24%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,7 +110,7 @@
     <t>25,31%</t>
   </si>
   <si>
-    <t>85,85%</t>
+    <t>85,94%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,7 +125,7 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>71,63%</t>
+    <t>70,96%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -137,19 +137,19 @@
     <t>51,96%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>21,38%</t>
@@ -158,19 +158,19 @@
     <t>25,55%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>24,38%</t>
@@ -182,16 +182,16 @@
     <t>22,5%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -209,19 +209,19 @@
     <t>79,88%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>50,92%</t>
@@ -236,19 +236,19 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -266,22 +266,22 @@
     <t>78,55%</t>
   </si>
   <si>
+    <t>19,16%</t>
+  </si>
+  <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>43,36%</t>
-  </si>
-  <si>
     <t>92,78%</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -290,34 +290,37 @@
     <t>21,1%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
+    <t>80,84%</t>
+  </si>
+  <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>35,72%</t>
+    <t>29,89%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>31,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -326,127 +329,127 @@
     <t>68,4%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>69,47%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>27,59%</t>
+    <t>26,5%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>25,79%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>30,86%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A91DA3E-E8AA-4293-BF02-35C02B8BA072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B7E91-EF3A-424E-B9EC-C6F68AAFC121}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,7 +1609,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1618,10 +1621,10 @@
         <v>10709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>78</v>
@@ -1711,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1720,13 +1723,13 @@
         <v>1085</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1735,13 +1738,13 @@
         <v>2106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,7 +1800,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1824,13 +1827,13 @@
         <v>17561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1839,13 +1842,13 @@
         <v>18462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1878,13 @@
         <v>2239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1890,13 +1893,13 @@
         <v>2239</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1929,13 @@
         <v>5875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -1941,13 +1944,13 @@
         <v>5875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2018,13 @@
         <v>12231</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -2030,13 +2033,13 @@
         <v>54558</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -2045,13 +2048,13 @@
         <v>66789</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2069,13 @@
         <v>4953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2081,13 +2084,13 @@
         <v>15003</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -2096,13 +2099,13 @@
         <v>19956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2120,13 @@
         <v>1913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2132,13 +2135,13 @@
         <v>11485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2147,13 +2150,13 @@
         <v>13397</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2212,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7E1D8D-9EA8-4E38-8B8E-FFC998B5EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE698F91-574C-4B9C-9540-A6C10E4A9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F49701EF-0D18-47B7-8B3D-AB131ACC777F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7933CBEB-525A-4AF2-A261-EF572611A32D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
   <si>
-    <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
+    <t>Población según el tiempo de diagnóstico del anemia en 2016 (Tasa respuesta: 1,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -89,7 +89,7 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>13,54%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,7 +110,7 @@
     <t>25,31%</t>
   </si>
   <si>
-    <t>85,94%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,16 +119,13 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>54,24%</t>
@@ -137,118 +134,118 @@
     <t>51,96%</t>
   </si>
   <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
+    <t>72,46%</t>
+  </si>
+  <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -260,7 +257,7 @@
     <t>6,81%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>78,55%</t>
@@ -272,16 +269,19 @@
     <t>71,64%</t>
   </si>
   <si>
-    <t>92,78%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -290,19 +290,19 @@
     <t>21,1%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>21,45%</t>
@@ -314,13 +314,13 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>29,89%</t>
+    <t>30,7%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>31,98%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -329,127 +329,127 @@
     <t>68,4%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>69,47%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>26,5%</t>
+    <t>26,9%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>25,36%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B7E91-EF3A-424E-B9EC-C6F68AAFC121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6BDFC5-CDBD-44D4-880F-C341A42A3998}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1120,13 +1120,13 @@
         <v>968</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1194,7 +1194,7 @@
         <v>1985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -1209,13 +1209,13 @@
         <v>8212</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1224,13 +1224,13 @@
         <v>10197</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,13 +1245,13 @@
         <v>783</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1311,13 +1311,13 @@
         <v>3556</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1329,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1400,13 +1400,13 @@
         <v>4020</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1415,13 +1415,13 @@
         <v>16315</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -1430,13 +1430,13 @@
         <v>20335</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,13 +1451,13 @@
         <v>4170</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1466,13 +1466,13 @@
         <v>4109</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1481,13 +1481,13 @@
         <v>8279</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1606,10 +1606,10 @@
         <v>3737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1621,10 +1621,10 @@
         <v>10709</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>78</v>
